--- a/export/04-Gas_by_meso_resumo.xlsx
+++ b/export/04-Gas_by_meso_resumo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.barbosa\Documents\Github\Tes_Cap2\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE26A8-3378-4E43-A002-BB4A8F57A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B134B-691E-42CC-9EAF-B2CC6FBDE3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14775" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04-Gas_by_meso_resumo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04-Gas_by_meso_resumo'!$A$4:$G$4</definedName>
   </definedNames>
@@ -31,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +226,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -500,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,14 +578,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -583,6 +619,7 @@
     <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{51360F3B-6C8B-4371-9E58-C52E4F682496}"/>
     <cellStyle name="Nota" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Ruim" xfId="8" builtinId="27" customBuiltin="1"/>
@@ -596,7 +633,28 @@
     <cellStyle name="Título 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -607,6 +665,323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="GrandeRegioes"/>
+      <sheetName val="Estados"/>
+      <sheetName val="Municipios"/>
+      <sheetName val="Mapeamento"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>11</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>RO</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>RONDONIA</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>12</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>AC</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>ACRE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>13</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>AM</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>AMAZONAS</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>14</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>RR</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>RORAIMA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>15</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>PARA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>16</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>AP</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>AMAPA</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>17</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>TO</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>TOCANTINS</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>21</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>MA</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>MARANHAO</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>22</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>PI</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>PIAUI</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>23</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>CE</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>CEARA</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>24</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>RN</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>RIO GRANDE DO NORTE</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>25</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>PB</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>PARAIBA</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>26</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>PE</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>PERNAMBUCO</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>27</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>AL</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>ALAGOAS</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>28</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>SE</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>SERGIPE</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>29</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>BA</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>BAHIA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>31</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>MG</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>MINAS GERAIS</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>32</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>ES</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>ESPIRITO SANTO</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>33</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>RJ</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>RIO DE JANEIRO</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>35</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>SP</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>SAO PAULO</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>41</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>PR</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>PARANA</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>42</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>SC</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>SANTA CATARINA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>43</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>RS</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>RIO GRANDE DO SUL</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>50</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>MATO GROSSO DO SUL</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>51</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>MT</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>MATO GROSSO</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>52</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>GOIAS</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>53</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>DF</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>DISTRITO FEDERAL</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:AH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +1292,20 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -928,7 +1313,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -936,7 +1321,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1303</v>
       </c>
@@ -984,8 +1369,16 @@
         <f>759*3 -SUM(B5:D5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>SUM(B5:D5)</f>
+        <v>2277</v>
+      </c>
+      <c r="J5">
+        <f>COUNT($G$5:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2202</v>
       </c>
@@ -1010,8 +1403,16 @@
         <f>759*3 -SUM(B6:D6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" ref="H6:H69" si="0">SUM(B6:D6)</f>
+        <v>2277</v>
+      </c>
+      <c r="J6">
+        <f>COUNT($G$5:G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2404</v>
       </c>
@@ -1036,8 +1437,16 @@
         <f>759*3 -SUM(B7:D7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J7">
+        <f>COUNT($G$5:G7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2504</v>
       </c>
@@ -1062,8 +1471,16 @@
         <f>759*3 -SUM(B8:D8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J8">
+        <f>COUNT($G$5:G8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2903</v>
       </c>
@@ -1088,8 +1505,16 @@
         <f>759*3 -SUM(B9:D9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J9">
+        <f>COUNT($G$5:G9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2905</v>
       </c>
@@ -1114,8 +1539,16 @@
         <f>759*3 -SUM(B10:D10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J10">
+        <f>COUNT($G$5:G10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3105</v>
       </c>
@@ -1140,8 +1573,16 @@
         <f>759*3 -SUM(B11:D11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J11">
+        <f>COUNT($G$5:G11)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3107</v>
       </c>
@@ -1166,8 +1607,16 @@
         <f>759*3 -SUM(B12:D12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J12">
+        <f>COUNT($G$5:G12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3112</v>
       </c>
@@ -1192,8 +1641,16 @@
         <f>759*3 -SUM(B13:D13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J13">
+        <f>COUNT($G$5:G13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3203</v>
       </c>
@@ -1218,8 +1675,16 @@
         <f>759*3 -SUM(B14:D14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J14">
+        <f>COUNT($G$5:G14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3305</v>
       </c>
@@ -1244,8 +1709,16 @@
         <f>759*3 -SUM(B15:D15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J15">
+        <f>COUNT($G$5:G15)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3306</v>
       </c>
@@ -1270,8 +1743,16 @@
         <f>759*3 -SUM(B16:D16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J16">
+        <f>COUNT($G$5:G16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3501</v>
       </c>
@@ -1296,8 +1777,16 @@
         <f>759*3 -SUM(B17:D17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J17">
+        <f>COUNT($G$5:G17)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3502</v>
       </c>
@@ -1322,8 +1811,16 @@
         <f>759*3 -SUM(B18:D18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J18">
+        <f>COUNT($G$5:G18)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3507</v>
       </c>
@@ -1348,8 +1845,16 @@
         <f>759*3 -SUM(B19:D19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J19">
+        <f>COUNT($G$5:G19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3512</v>
       </c>
@@ -1374,8 +1879,16 @@
         <f>759*3 -SUM(B20:D20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J20">
+        <f>COUNT($G$5:G20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3515</v>
       </c>
@@ -1400,8 +1913,16 @@
         <f>759*3 -SUM(B21:D21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J21">
+        <f>COUNT($G$5:G21)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4103</v>
       </c>
@@ -1426,8 +1947,16 @@
         <f>759*3 -SUM(B22:D22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J22">
+        <f>COUNT($G$5:G22)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4110</v>
       </c>
@@ -1452,8 +1981,16 @@
         <f>759*3 -SUM(B23:D23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J23">
+        <f>COUNT($G$5:G23)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4305</v>
       </c>
@@ -1478,8 +2015,16 @@
         <f>759*3 -SUM(B24:D24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J24">
+        <f>COUNT($G$5:G24)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4306</v>
       </c>
@@ -1504,8 +2049,16 @@
         <f>759*3 -SUM(B25:D25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J25">
+        <f>COUNT($G$5:G25)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5002</v>
       </c>
@@ -1530,8 +2083,16 @@
         <f>759*3 -SUM(B26:D26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J26">
+        <f>COUNT($G$5:G26)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5104</v>
       </c>
@@ -1556,8 +2117,16 @@
         <f>759*3 -SUM(B27:D27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J27">
+        <f>COUNT($G$5:G27)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5203</v>
       </c>
@@ -1582,8 +2151,16 @@
         <f>759*3 -SUM(B28:D28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J28">
+        <f>COUNT($G$5:G28)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5301</v>
       </c>
@@ -1608,8 +2185,16 @@
         <f>759*3 -SUM(B29:D29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="J29">
+        <f>COUNT($G$5:G29)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1202</v>
       </c>
@@ -1634,8 +2219,16 @@
         <f>759*3 -SUM(B30:D30)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J30">
+        <f>COUNT($G$5:G30)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2703</v>
       </c>
@@ -1660,8 +2253,16 @@
         <f>759*3 -SUM(B31:D31)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J31">
+        <f>COUNT($G$5:G31)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2803</v>
       </c>
@@ -1686,8 +2287,16 @@
         <f>759*3 -SUM(B32:D32)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J32">
+        <f>COUNT($G$5:G32)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3102</v>
       </c>
@@ -1712,8 +2321,16 @@
         <f>759*3 -SUM(B33:D33)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J33">
+        <f>COUNT($G$5:G33)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4202</v>
       </c>
@@ -1738,8 +2355,16 @@
         <f>759*3 -SUM(B34:D34)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J34">
+        <f>COUNT($G$5:G34)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4206</v>
       </c>
@@ -1764,8 +2389,16 @@
         <f>759*3 -SUM(B35:D35)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+      <c r="J35">
+        <f>COUNT($G$5:G35)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1702</v>
       </c>
@@ -1790,8 +2423,16 @@
         <f>759*3 -SUM(B36:D36)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J36">
+        <f>COUNT($G$5:G36)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2907</v>
       </c>
@@ -1816,8 +2457,16 @@
         <f>759*3 -SUM(B37:D37)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J37">
+        <f>COUNT($G$5:G37)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3108</v>
       </c>
@@ -1842,8 +2491,16 @@
         <f>759*3 -SUM(B38:D38)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J38">
+        <f>COUNT($G$5:G38)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3109</v>
       </c>
@@ -1868,8 +2525,16 @@
         <f>759*3 -SUM(B39:D39)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J39">
+        <f>COUNT($G$5:G39)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4106</v>
       </c>
@@ -1894,8 +2559,16 @@
         <f>759*3 -SUM(B40:D40)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J40">
+        <f>COUNT($G$5:G40)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4205</v>
       </c>
@@ -1920,8 +2593,16 @@
         <f>759*3 -SUM(B41:D41)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2275</v>
+      </c>
+      <c r="J41">
+        <f>COUNT($G$5:G41)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3302</v>
       </c>
@@ -1946,8 +2627,16 @@
         <f>759*3 -SUM(B42:D42)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2274</v>
+      </c>
+      <c r="J42">
+        <f>COUNT($G$5:G42)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3513</v>
       </c>
@@ -1972,8 +2661,16 @@
         <f>759*3 -SUM(B43:D43)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2274</v>
+      </c>
+      <c r="J43">
+        <f>COUNT($G$5:G43)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4204</v>
       </c>
@@ -1998,8 +2695,16 @@
         <f>759*3 -SUM(B44:D44)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>2274</v>
+      </c>
+      <c r="J44">
+        <f>COUNT($G$5:G44)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4302</v>
       </c>
@@ -2024,8 +2729,16 @@
         <f>759*3 -SUM(B45:D45)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2274</v>
+      </c>
+      <c r="J45">
+        <f>COUNT($G$5:G45)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3505</v>
       </c>
@@ -2050,8 +2763,16 @@
         <f>759*3 -SUM(B46:D46)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+      <c r="J46">
+        <f>COUNT($G$5:G46)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3506</v>
       </c>
@@ -2076,8 +2797,16 @@
         <f>759*3 -SUM(B47:D47)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+      <c r="J47">
+        <f>COUNT($G$5:G47)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1101</v>
       </c>
@@ -2102,8 +2831,16 @@
         <f>759*3 -SUM(B48:D48)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J48">
+        <f>COUNT($G$5:G48)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1102</v>
       </c>
@@ -2128,8 +2865,16 @@
         <f>759*3 -SUM(B49:D49)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J49">
+        <f>COUNT($G$5:G49)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2101</v>
       </c>
@@ -2154,8 +2899,16 @@
         <f>759*3 -SUM(B50:D50)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J50">
+        <f>COUNT($G$5:G50)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3110</v>
       </c>
@@ -2180,8 +2933,16 @@
         <f>759*3 -SUM(B51:D51)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J51">
+        <f>COUNT($G$5:G51)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5205</v>
       </c>
@@ -2206,36 +2967,52 @@
         <f>759*3 -SUM(B52:D52)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J52">
+        <f>COUNT($G$5:G52)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1401</v>
+        <v>2902</v>
       </c>
       <c r="B53">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C53">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D53">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E53">
         <f>MIN(B53:D53)</f>
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F53" s="3">
         <f>E53/$B$2</f>
-        <v>0.99077733860342554</v>
+        <v>0.99604743083003955</v>
       </c>
       <c r="G53">
         <f>759*3 -SUM(B53:D53)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>2268</v>
+      </c>
+      <c r="J53">
+        <f>COUNT($G$5:G53)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2902</v>
+        <v>3303</v>
       </c>
       <c r="B54">
         <v>756</v>
@@ -2258,36 +3035,52 @@
         <f>759*3 -SUM(B54:D54)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>2268</v>
+      </c>
+      <c r="J54">
+        <f>COUNT($G$5:G54)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3303</v>
+        <v>1701</v>
       </c>
       <c r="B55">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C55">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D55">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E55">
         <f>MIN(B55:D55)</f>
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F55" s="3">
         <f>E55/$B$2</f>
-        <v>0.99604743083003955</v>
+        <v>0.99341238471673254</v>
       </c>
       <c r="G55">
         <f>759*3 -SUM(B55:D55)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>2263</v>
+      </c>
+      <c r="J55">
+        <f>COUNT($G$5:G55)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1701</v>
+        <v>2906</v>
       </c>
       <c r="B56">
         <v>754</v>
@@ -2310,10 +3103,18 @@
         <f>759*3 -SUM(B56:D56)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2263</v>
+      </c>
+      <c r="J56">
+        <f>COUNT($G$5:G56)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2906</v>
+        <v>4105</v>
       </c>
       <c r="B57">
         <v>754</v>
@@ -2336,16 +3137,24 @@
         <f>759*3 -SUM(B57:D57)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>2263</v>
+      </c>
+      <c r="J57">
+        <f>COUNT($G$5:G57)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4105</v>
+        <v>4301</v>
       </c>
       <c r="B58">
         <v>754</v>
       </c>
       <c r="C58">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D58">
         <v>754</v>
@@ -2360,38 +3169,54 @@
       </c>
       <c r="G58">
         <f>759*3 -SUM(B58:D58)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>2262</v>
+      </c>
+      <c r="J58">
+        <f>COUNT($G$5:G58)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4301</v>
+        <v>3304</v>
       </c>
       <c r="B59">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C59">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D59">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E59">
         <f>MIN(B59:D59)</f>
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F59" s="3">
         <f>E59/$B$2</f>
-        <v>0.99341238471673254</v>
+        <v>0.9920948616600791</v>
       </c>
       <c r="G59">
         <f>759*3 -SUM(B59:D59)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2259</v>
+      </c>
+      <c r="J59">
+        <f>COUNT($G$5:G59)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3304</v>
+        <v>3510</v>
       </c>
       <c r="B60">
         <v>753</v>
@@ -2414,34 +3239,50 @@
         <f>759*3 -SUM(B60:D60)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>2259</v>
+      </c>
+      <c r="J60">
+        <f>COUNT($G$5:G60)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3510</v>
+        <v>1401</v>
       </c>
       <c r="B61">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C61">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D61">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E61">
         <f>MIN(B61:D61)</f>
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F61" s="3">
         <f>E61/$B$2</f>
-        <v>0.9920948616600791</v>
+        <v>0.99077733860342554</v>
       </c>
       <c r="G61">
         <f>759*3 -SUM(B61:D61)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="J61">
+        <f>COUNT($G$5:G61)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5101</v>
       </c>
@@ -2466,8 +3307,16 @@
         <f>759*3 -SUM(B62:D62)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>2258</v>
+      </c>
+      <c r="J62">
+        <f>COUNT($G$5:G62)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4101</v>
       </c>
@@ -2492,36 +3341,52 @@
         <f>759*3 -SUM(B63:D63)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>2257</v>
+      </c>
+      <c r="J63">
+        <f>COUNT($G$5:G63)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1506</v>
+        <v>2501</v>
       </c>
       <c r="B64">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C64">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D64">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E64">
         <f>MIN(B64:D64)</f>
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F64" s="3">
         <f>E64/$B$2</f>
-        <v>0.98682476943346509</v>
+        <v>0.99077733860342554</v>
       </c>
       <c r="G64">
         <f>759*3 -SUM(B64:D64)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>2256</v>
+      </c>
+      <c r="J64">
+        <f>COUNT($G$5:G64)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2501</v>
+        <v>5204</v>
       </c>
       <c r="B65">
         <v>752</v>
@@ -2544,13 +3409,21 @@
         <f>759*3 -SUM(B65:D65)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>2256</v>
+      </c>
+      <c r="J65">
+        <f>COUNT($G$5:G65)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5204</v>
+        <v>2102</v>
       </c>
       <c r="B66">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C66">
         <v>752</v>
@@ -2560,20 +3433,28 @@
       </c>
       <c r="E66">
         <f>MIN(B66:D66)</f>
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F66" s="3">
         <f>E66/$B$2</f>
-        <v>0.99077733860342554</v>
+        <v>0.98945981554677209</v>
       </c>
       <c r="G66">
         <f>759*3 -SUM(B66:D66)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>2255</v>
+      </c>
+      <c r="J66">
+        <f>COUNT($G$5:G66)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="B67">
         <v>751</v>
@@ -2596,19 +3477,27 @@
         <f>759*3 -SUM(B67:D67)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>2255</v>
+      </c>
+      <c r="J67">
+        <f>COUNT($G$5:G67)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2104</v>
+        <v>4304</v>
       </c>
       <c r="B68">
         <v>751</v>
       </c>
       <c r="C68">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D68">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E68">
         <f>MIN(B68:D68)</f>
@@ -2620,90 +3509,122 @@
       </c>
       <c r="G68">
         <f>759*3 -SUM(B68:D68)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>2253</v>
+      </c>
+      <c r="J68">
+        <f>COUNT($G$5:G68)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2603</v>
+        <v>2802</v>
       </c>
       <c r="B69">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C69">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="D69">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E69">
         <f>MIN(B69:D69)</f>
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="F69" s="3">
         <f>E69/$B$2</f>
-        <v>0.97364953886693018</v>
+        <v>0.98814229249011853</v>
       </c>
       <c r="G69">
         <f>759*3 -SUM(B69:D69)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>2252</v>
+      </c>
+      <c r="J69">
+        <f>COUNT($G$5:G69)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4304</v>
+        <v>1506</v>
       </c>
       <c r="B70">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C70">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D70">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E70">
         <f>MIN(B70:D70)</f>
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F70" s="3">
         <f>E70/$B$2</f>
-        <v>0.98945981554677209</v>
+        <v>0.98682476943346509</v>
       </c>
       <c r="G70">
         <f>759*3 -SUM(B70:D70)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:H132" si="1">SUM(B70:D70)</f>
+        <v>2257</v>
+      </c>
+      <c r="J70">
+        <f>COUNT($G$5:G70)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2802</v>
+        <v>2307</v>
       </c>
       <c r="B71">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C71">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D71">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E71">
         <f>MIN(B71:D71)</f>
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F71" s="3">
         <f>E71/$B$2</f>
-        <v>0.98814229249011853</v>
+        <v>0.98550724637681164</v>
       </c>
       <c r="G71">
         <f>759*3 -SUM(B71:D71)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>2244</v>
+      </c>
+      <c r="J71">
+        <f>COUNT($G$5:G71)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2307</v>
+        <v>3503</v>
       </c>
       <c r="B72">
         <v>748</v>
@@ -2726,10 +3647,18 @@
         <f>759*3 -SUM(B72:D72)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>2244</v>
+      </c>
+      <c r="J72">
+        <f>COUNT($G$5:G72)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B73">
         <v>748</v>
@@ -2752,39 +3681,55 @@
         <f>759*3 -SUM(B73:D73)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>2244</v>
+      </c>
+      <c r="J73">
+        <f>COUNT($G$5:G73)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3504</v>
+        <v>3511</v>
       </c>
       <c r="B74">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C74">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D74">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E74">
         <f>MIN(B74:D74)</f>
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F74" s="3">
         <f>E74/$B$2</f>
-        <v>0.98550724637681164</v>
+        <v>0.98418972332015808</v>
       </c>
       <c r="G74">
         <f>759*3 -SUM(B74:D74)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>2241</v>
+      </c>
+      <c r="J74">
+        <f>COUNT($G$5:G74)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3511</v>
+        <v>2103</v>
       </c>
       <c r="B75">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C75">
         <v>747</v>
@@ -2794,29 +3739,37 @@
       </c>
       <c r="E75">
         <f>MIN(B75:D75)</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F75" s="3">
         <f>E75/$B$2</f>
-        <v>0.98418972332015808</v>
+        <v>0.98287220026350464</v>
       </c>
       <c r="G75">
         <f>759*3 -SUM(B75:D75)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>2240</v>
+      </c>
+      <c r="J75">
+        <f>COUNT($G$5:G75)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B76">
         <v>746</v>
       </c>
       <c r="C76">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D76">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E76">
         <f>MIN(B76:D76)</f>
@@ -2828,12 +3781,20 @@
       </c>
       <c r="G76">
         <f>759*3 -SUM(B76:D76)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="J76">
+        <f>COUNT($G$5:G76)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2301</v>
+        <v>2401</v>
       </c>
       <c r="B77">
         <v>746</v>
@@ -2856,10 +3817,18 @@
         <f>759*3 -SUM(B77:D77)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="J77">
+        <f>COUNT($G$5:G77)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2401</v>
+        <v>2702</v>
       </c>
       <c r="B78">
         <v>746</v>
@@ -2882,10 +3851,18 @@
         <f>759*3 -SUM(B78:D78)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="J78">
+        <f>COUNT($G$5:G78)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2702</v>
+        <v>4307</v>
       </c>
       <c r="B79">
         <v>746</v>
@@ -2908,10 +3885,18 @@
         <f>759*3 -SUM(B79:D79)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="J79">
+        <f>COUNT($G$5:G79)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4307</v>
+        <v>5004</v>
       </c>
       <c r="B80">
         <v>746</v>
@@ -2934,45 +3919,61 @@
         <f>759*3 -SUM(B80:D80)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="J80">
+        <f>COUNT($G$5:G80)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5004</v>
+        <v>2304</v>
       </c>
       <c r="B81">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C81">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D81">
         <v>746</v>
       </c>
       <c r="E81">
         <f>MIN(B81:D81)</f>
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F81" s="3">
         <f>E81/$B$2</f>
-        <v>0.98287220026350464</v>
+        <v>0.98155467720685108</v>
       </c>
       <c r="G81">
         <f>759*3 -SUM(B81:D81)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>2236</v>
+      </c>
+      <c r="J81">
+        <f>COUNT($G$5:G81)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2304</v>
+        <v>5003</v>
       </c>
       <c r="B82">
         <v>745</v>
       </c>
       <c r="C82">
+        <v>746</v>
+      </c>
+      <c r="D82">
         <v>745</v>
-      </c>
-      <c r="D82">
-        <v>746</v>
       </c>
       <c r="E82">
         <f>MIN(B82:D82)</f>
@@ -2986,16 +3987,24 @@
         <f>759*3 -SUM(B82:D82)</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>2236</v>
+      </c>
+      <c r="J82">
+        <f>COUNT($G$5:G82)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5003</v>
+        <v>2201</v>
       </c>
       <c r="B83">
         <v>745</v>
       </c>
       <c r="C83">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D83">
         <v>745</v>
@@ -3010,12 +4019,20 @@
       </c>
       <c r="G83">
         <f>759*3 -SUM(B83:D83)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>2235</v>
+      </c>
+      <c r="J83">
+        <f>COUNT($G$5:G83)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2201</v>
+        <v>5105</v>
       </c>
       <c r="B84">
         <v>745</v>
@@ -3038,36 +4055,52 @@
         <f>759*3 -SUM(B84:D84)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>2235</v>
+      </c>
+      <c r="J84">
+        <f>COUNT($G$5:G84)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5105</v>
+        <v>4201</v>
       </c>
       <c r="B85">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C85">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D85">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E85">
         <f>MIN(B85:D85)</f>
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F85" s="3">
         <f>E85/$B$2</f>
-        <v>0.98155467720685108</v>
+        <v>0.97891963109354418</v>
       </c>
       <c r="G85">
         <f>759*3 -SUM(B85:D85)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>2231</v>
+      </c>
+      <c r="J85">
+        <f>COUNT($G$5:G85)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4201</v>
+        <v>3101</v>
       </c>
       <c r="B86">
         <v>743</v>
@@ -3076,7 +4109,7 @@
         <v>744</v>
       </c>
       <c r="D86">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E86">
         <f>MIN(B86:D86)</f>
@@ -3088,18 +4121,26 @@
       </c>
       <c r="G86">
         <f>759*3 -SUM(B86:D86)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>2230</v>
+      </c>
+      <c r="J86">
+        <f>COUNT($G$5:G86)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3101</v>
+        <v>2602</v>
       </c>
       <c r="B87">
         <v>743</v>
       </c>
       <c r="C87">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D87">
         <v>743</v>
@@ -3114,12 +4155,20 @@
       </c>
       <c r="G87">
         <f>759*3 -SUM(B87:D87)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>2229</v>
+      </c>
+      <c r="J87">
+        <f>COUNT($G$5:G87)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2602</v>
+        <v>3508</v>
       </c>
       <c r="B88">
         <v>743</v>
@@ -3128,24 +4177,32 @@
         <v>743</v>
       </c>
       <c r="D88">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E88">
         <f>MIN(B88:D88)</f>
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F88" s="3">
         <f>E88/$B$2</f>
-        <v>0.97891963109354418</v>
+        <v>0.97760210803689063</v>
       </c>
       <c r="G88">
         <f>759*3 -SUM(B88:D88)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>2228</v>
+      </c>
+      <c r="J88">
+        <f>COUNT($G$5:G88)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B89">
         <v>743</v>
@@ -3168,19 +4225,27 @@
         <f>759*3 -SUM(B89:D89)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>2228</v>
+      </c>
+      <c r="J89">
+        <f>COUNT($G$5:G89)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3509</v>
+        <v>3111</v>
       </c>
       <c r="B90">
+        <v>742</v>
+      </c>
+      <c r="C90">
+        <v>742</v>
+      </c>
+      <c r="D90">
         <v>743</v>
-      </c>
-      <c r="C90">
-        <v>743</v>
-      </c>
-      <c r="D90">
-        <v>742</v>
       </c>
       <c r="E90">
         <f>MIN(B90:D90)</f>
@@ -3192,12 +4257,20 @@
       </c>
       <c r="G90">
         <f>759*3 -SUM(B90:D90)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>2227</v>
+      </c>
+      <c r="J90">
+        <f>COUNT($G$5:G90)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3111</v>
+        <v>2302</v>
       </c>
       <c r="B91">
         <v>742</v>
@@ -3206,7 +4279,7 @@
         <v>742</v>
       </c>
       <c r="D91">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E91">
         <f>MIN(B91:D91)</f>
@@ -3218,12 +4291,20 @@
       </c>
       <c r="G91">
         <f>759*3 -SUM(B91:D91)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>2226</v>
+      </c>
+      <c r="J91">
+        <f>COUNT($G$5:G91)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="B92">
         <v>742</v>
@@ -3246,13 +4327,21 @@
         <f>759*3 -SUM(B92:D92)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>2226</v>
+      </c>
+      <c r="J92">
+        <f>COUNT($G$5:G92)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2306</v>
+        <v>4303</v>
       </c>
       <c r="B93">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C93">
         <v>742</v>
@@ -3262,29 +4351,37 @@
       </c>
       <c r="E93">
         <f>MIN(B93:D93)</f>
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F93" s="3">
         <f>E93/$B$2</f>
-        <v>0.97760210803689063</v>
+        <v>0.97628458498023718</v>
       </c>
       <c r="G93">
         <f>759*3 -SUM(B93:D93)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>2225</v>
+      </c>
+      <c r="J93">
+        <f>COUNT($G$5:G93)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4303</v>
+        <v>2901</v>
       </c>
       <c r="B94">
         <v>741</v>
       </c>
       <c r="C94">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D94">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E94">
         <f>MIN(B94:D94)</f>
@@ -3296,44 +4393,60 @@
       </c>
       <c r="G94">
         <f>759*3 -SUM(B94:D94)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>2223</v>
+      </c>
+      <c r="J94">
+        <f>COUNT($G$5:G94)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2901</v>
+        <v>3106</v>
       </c>
       <c r="B95">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C95">
         <v>741</v>
       </c>
       <c r="D95">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E95">
         <f>MIN(B95:D95)</f>
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F95" s="3">
         <f>E95/$B$2</f>
-        <v>0.97628458498023718</v>
+        <v>0.97496706192358362</v>
       </c>
       <c r="G95">
         <f>759*3 -SUM(B95:D95)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>2221</v>
+      </c>
+      <c r="J95">
+        <f>COUNT($G$5:G95)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3106</v>
+        <v>2904</v>
       </c>
       <c r="B96">
         <v>740</v>
       </c>
       <c r="C96">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D96">
         <v>740</v>
@@ -3348,64 +4461,88 @@
       </c>
       <c r="G96">
         <f>759*3 -SUM(B96:D96)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>2220</v>
+      </c>
+      <c r="J96">
+        <f>COUNT($G$5:G96)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2904</v>
+        <v>2603</v>
       </c>
       <c r="B97">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="C97">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D97">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="E97">
         <f>MIN(B97:D97)</f>
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F97" s="3">
         <f>E97/$B$2</f>
-        <v>0.97496706192358362</v>
+        <v>0.97364953886693018</v>
       </c>
       <c r="G97">
         <f>759*3 -SUM(B97:D97)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>2255</v>
+      </c>
+      <c r="J97">
+        <f>COUNT($G$5:G97)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2601</v>
+        <v>4102</v>
       </c>
       <c r="B98">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C98">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D98">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E98">
         <f>MIN(B98:D98)</f>
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F98" s="3">
         <f>E98/$B$2</f>
-        <v>0.97233201581027673</v>
+        <v>0.97364953886693018</v>
       </c>
       <c r="G98">
         <f>759*3 -SUM(B98:D98)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>2219</v>
+      </c>
+      <c r="J98">
+        <f>COUNT($G$5:G98)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="B99">
         <v>739</v>
@@ -3414,7 +4551,7 @@
         <v>740</v>
       </c>
       <c r="D99">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E99">
         <f>MIN(B99:D99)</f>
@@ -3426,12 +4563,20 @@
       </c>
       <c r="G99">
         <f>759*3 -SUM(B99:D99)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>2218</v>
+      </c>
+      <c r="J99">
+        <f>COUNT($G$5:G99)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="B100">
         <v>739</v>
@@ -3454,16 +4599,24 @@
         <f>759*3 -SUM(B100:D100)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>2218</v>
+      </c>
+      <c r="J100">
+        <f>COUNT($G$5:G100)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4108</v>
+        <v>3104</v>
       </c>
       <c r="B101">
         <v>739</v>
       </c>
       <c r="C101">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D101">
         <v>739</v>
@@ -3478,12 +4631,20 @@
       </c>
       <c r="G101">
         <f>759*3 -SUM(B101:D101)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>2217</v>
+      </c>
+      <c r="J101">
+        <f>COUNT($G$5:G101)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3104</v>
+        <v>3202</v>
       </c>
       <c r="B102">
         <v>739</v>
@@ -3506,34 +4667,196 @@
         <f>759*3 -SUM(B102:D102)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>2217</v>
+      </c>
+      <c r="I102">
+        <f>E102-759</f>
+        <v>-20</v>
+      </c>
+      <c r="J102">
+        <f>COUNT($G$5:G102)</f>
+        <v>98</v>
+      </c>
+      <c r="K102">
+        <f>LEFT(A102,2)*1</f>
+        <v>32</v>
+      </c>
+      <c r="M102">
+        <f>COUNTA(O102:AH102)</f>
+        <v>20</v>
+      </c>
+      <c r="O102" cm="1">
+        <f t="array" ref="O102:AH102">TRANSPOSE(_xlfn.UNIQUE($K102:$K$132))</f>
+        <v>32</v>
+      </c>
+      <c r="P102">
+        <v>26</v>
+      </c>
+      <c r="Q102">
+        <v>33</v>
+      </c>
+      <c r="R102">
+        <v>41</v>
+      </c>
+      <c r="S102">
+        <v>24</v>
+      </c>
+      <c r="T102">
+        <v>27</v>
+      </c>
+      <c r="U102">
+        <v>42</v>
+      </c>
+      <c r="V102">
+        <v>22</v>
+      </c>
+      <c r="W102">
+        <v>52</v>
+      </c>
+      <c r="X102">
+        <v>50</v>
+      </c>
+      <c r="Y102">
+        <v>15</v>
+      </c>
+      <c r="Z102">
+        <v>21</v>
+      </c>
+      <c r="AA102">
+        <v>25</v>
+      </c>
+      <c r="AB102">
+        <v>35</v>
+      </c>
+      <c r="AC102">
+        <v>23</v>
+      </c>
+      <c r="AD102">
+        <v>16</v>
+      </c>
+      <c r="AE102">
+        <v>13</v>
+      </c>
+      <c r="AF102">
+        <v>12</v>
+      </c>
+      <c r="AG102">
+        <v>31</v>
+      </c>
+      <c r="AH102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3202</v>
+        <v>2601</v>
       </c>
       <c r="B103">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C103">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D103">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E103">
         <f>MIN(B103:D103)</f>
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F103" s="3">
         <f>E103/$B$2</f>
-        <v>0.97364953886693018</v>
+        <v>0.97233201581027673</v>
       </c>
       <c r="G103">
         <f>759*3 -SUM(B103:D103)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>2220</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ref="I103:I132" si="2">E103-759</f>
+        <v>-21</v>
+      </c>
+      <c r="J103">
+        <f>COUNT($G$5:G103)</f>
+        <v>99</v>
+      </c>
+      <c r="K103">
+        <f>LEFT(A103,2)*1</f>
+        <v>26</v>
+      </c>
+      <c r="M103">
+        <f t="shared" ref="M103:M104" si="3">COUNTA(O103:AH103)</f>
+        <v>20</v>
+      </c>
+      <c r="O103" cm="1">
+        <f t="array" ref="O103:AH103">TRANSPOSE(_xlfn.UNIQUE($K103:$K$132))</f>
+        <v>26</v>
+      </c>
+      <c r="P103">
+        <v>33</v>
+      </c>
+      <c r="Q103">
+        <v>41</v>
+      </c>
+      <c r="R103">
+        <v>32</v>
+      </c>
+      <c r="S103">
+        <v>24</v>
+      </c>
+      <c r="T103">
+        <v>27</v>
+      </c>
+      <c r="U103">
+        <v>42</v>
+      </c>
+      <c r="V103">
+        <v>22</v>
+      </c>
+      <c r="W103">
+        <v>52</v>
+      </c>
+      <c r="X103">
+        <v>50</v>
+      </c>
+      <c r="Y103">
+        <v>15</v>
+      </c>
+      <c r="Z103">
+        <v>21</v>
+      </c>
+      <c r="AA103">
+        <v>25</v>
+      </c>
+      <c r="AB103">
+        <v>35</v>
+      </c>
+      <c r="AC103">
+        <v>23</v>
+      </c>
+      <c r="AD103">
+        <v>16</v>
+      </c>
+      <c r="AE103">
+        <v>13</v>
+      </c>
+      <c r="AF103">
+        <v>12</v>
+      </c>
+      <c r="AG103">
+        <v>31</v>
+      </c>
+      <c r="AH103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3301</v>
       </c>
@@ -3558,71 +4881,308 @@
         <f>759*3 -SUM(B104:D104)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>2209</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="2"/>
+        <v>-23</v>
+      </c>
+      <c r="J104">
+        <f>COUNT($G$5:G104)</f>
+        <v>100</v>
+      </c>
+      <c r="K104">
+        <f>LEFT(A104,2)*1</f>
+        <v>33</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O104" cm="1">
+        <f t="array" ref="O104:AH104">TRANSPOSE(_xlfn.UNIQUE($K104:$K$132))</f>
+        <v>33</v>
+      </c>
+      <c r="P104">
+        <v>41</v>
+      </c>
+      <c r="Q104">
+        <v>32</v>
+      </c>
+      <c r="R104">
+        <v>24</v>
+      </c>
+      <c r="S104">
+        <v>27</v>
+      </c>
+      <c r="T104">
+        <v>42</v>
+      </c>
+      <c r="U104">
+        <v>22</v>
+      </c>
+      <c r="V104">
+        <v>52</v>
+      </c>
+      <c r="W104">
+        <v>50</v>
+      </c>
+      <c r="X104">
+        <v>15</v>
+      </c>
+      <c r="Y104">
+        <v>21</v>
+      </c>
+      <c r="Z104">
+        <v>25</v>
+      </c>
+      <c r="AA104">
+        <v>26</v>
+      </c>
+      <c r="AB104">
+        <v>35</v>
+      </c>
+      <c r="AC104">
+        <v>23</v>
+      </c>
+      <c r="AD104">
+        <v>16</v>
+      </c>
+      <c r="AE104">
+        <v>13</v>
+      </c>
+      <c r="AF104">
+        <v>12</v>
+      </c>
+      <c r="AG104">
+        <v>31</v>
+      </c>
+      <c r="AH104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1602</v>
+        <v>4104</v>
       </c>
       <c r="B105">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="C105">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="D105">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="E105">
         <f>MIN(B105:D105)</f>
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="F105" s="3">
         <f>E105/$B$2</f>
-        <v>0.91304347826086951</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="G105">
         <f>759*3 -SUM(B105:D105)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>2208</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="2"/>
+        <v>-23</v>
+      </c>
+      <c r="J105">
+        <f>COUNT($G$5:G105)</f>
+        <v>101</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ref="K105:K132" si="4">LEFT(A105,2)*1</f>
+        <v>41</v>
+      </c>
+      <c r="M105">
+        <f t="shared" ref="M105:M132" si="5">COUNTA(O105:AH105)</f>
+        <v>19</v>
+      </c>
+      <c r="O105" cm="1">
+        <f t="array" ref="O105:AG105">TRANSPOSE(_xlfn.UNIQUE($K105:$K$132))</f>
+        <v>41</v>
+      </c>
+      <c r="P105">
+        <v>32</v>
+      </c>
+      <c r="Q105">
+        <v>24</v>
+      </c>
+      <c r="R105">
+        <v>27</v>
+      </c>
+      <c r="S105">
+        <v>42</v>
+      </c>
+      <c r="T105">
+        <v>22</v>
+      </c>
+      <c r="U105">
+        <v>52</v>
+      </c>
+      <c r="V105">
+        <v>50</v>
+      </c>
+      <c r="W105">
+        <v>15</v>
+      </c>
+      <c r="X105">
+        <v>21</v>
+      </c>
+      <c r="Y105">
+        <v>25</v>
+      </c>
+      <c r="Z105">
+        <v>26</v>
+      </c>
+      <c r="AA105">
+        <v>35</v>
+      </c>
+      <c r="AB105">
+        <v>23</v>
+      </c>
+      <c r="AC105">
+        <v>16</v>
+      </c>
+      <c r="AD105">
+        <v>13</v>
+      </c>
+      <c r="AE105">
+        <v>12</v>
+      </c>
+      <c r="AF105">
+        <v>31</v>
+      </c>
+      <c r="AG105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4104</v>
+        <v>3201</v>
       </c>
       <c r="B106">
         <v>736</v>
       </c>
       <c r="C106">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D106">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E106">
         <f>MIN(B106:D106)</f>
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F106" s="3">
         <f>E106/$B$2</f>
-        <v>0.96969696969696972</v>
+        <v>0.96837944664031617</v>
       </c>
       <c r="G106">
         <f>759*3 -SUM(B106:D106)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>2208</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+      <c r="J106">
+        <f>COUNT($G$5:G106)</f>
+        <v>102</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O106" cm="1">
+        <f t="array" ref="O106:AG106">TRANSPOSE(_xlfn.UNIQUE($K106:$K$132))</f>
+        <v>32</v>
+      </c>
+      <c r="P106">
+        <v>24</v>
+      </c>
+      <c r="Q106">
+        <v>27</v>
+      </c>
+      <c r="R106">
+        <v>42</v>
+      </c>
+      <c r="S106">
+        <v>22</v>
+      </c>
+      <c r="T106">
+        <v>52</v>
+      </c>
+      <c r="U106">
+        <v>50</v>
+      </c>
+      <c r="V106">
+        <v>15</v>
+      </c>
+      <c r="W106">
+        <v>21</v>
+      </c>
+      <c r="X106">
+        <v>25</v>
+      </c>
+      <c r="Y106">
+        <v>26</v>
+      </c>
+      <c r="Z106">
+        <v>41</v>
+      </c>
+      <c r="AA106">
+        <v>35</v>
+      </c>
+      <c r="AB106">
+        <v>23</v>
+      </c>
+      <c r="AC106">
+        <v>16</v>
+      </c>
+      <c r="AD106">
+        <v>13</v>
+      </c>
+      <c r="AE106">
+        <v>12</v>
+      </c>
+      <c r="AF106">
+        <v>31</v>
+      </c>
+      <c r="AG106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3201</v>
+        <v>2402</v>
       </c>
       <c r="B107">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C107">
         <v>735</v>
       </c>
       <c r="D107">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E107">
         <f>MIN(B107:D107)</f>
@@ -3634,307 +5194,1066 @@
       </c>
       <c r="G107">
         <f>759*3 -SUM(B107:D107)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>2205</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+      <c r="J107">
+        <f>COUNT($G$5:G107)</f>
+        <v>103</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O107" cm="1">
+        <f t="array" ref="O107:AG107">TRANSPOSE(_xlfn.UNIQUE($K107:$K$132))</f>
+        <v>24</v>
+      </c>
+      <c r="P107">
+        <v>27</v>
+      </c>
+      <c r="Q107">
+        <v>32</v>
+      </c>
+      <c r="R107">
+        <v>42</v>
+      </c>
+      <c r="S107">
+        <v>22</v>
+      </c>
+      <c r="T107">
+        <v>52</v>
+      </c>
+      <c r="U107">
+        <v>50</v>
+      </c>
+      <c r="V107">
+        <v>15</v>
+      </c>
+      <c r="W107">
+        <v>21</v>
+      </c>
+      <c r="X107">
+        <v>25</v>
+      </c>
+      <c r="Y107">
+        <v>26</v>
+      </c>
+      <c r="Z107">
+        <v>41</v>
+      </c>
+      <c r="AA107">
+        <v>35</v>
+      </c>
+      <c r="AB107">
+        <v>23</v>
+      </c>
+      <c r="AC107">
+        <v>16</v>
+      </c>
+      <c r="AD107">
+        <v>13</v>
+      </c>
+      <c r="AE107">
+        <v>12</v>
+      </c>
+      <c r="AF107">
+        <v>31</v>
+      </c>
+      <c r="AG107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1501</v>
+        <v>2701</v>
       </c>
       <c r="B108">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C108">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D108">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E108">
         <f>MIN(B108:D108)</f>
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="F108" s="3">
         <f>E108/$B$2</f>
-        <v>0.95388669301712781</v>
+        <v>0.96706192358366272</v>
       </c>
       <c r="G108">
         <f>759*3 -SUM(B108:D108)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>2204</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="J108">
+        <f>COUNT($G$5:G108)</f>
+        <v>104</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="O108" cm="1">
+        <f t="array" ref="O108:AF108">TRANSPOSE(_xlfn.UNIQUE($K108:$K$132))</f>
+        <v>27</v>
+      </c>
+      <c r="P108">
+        <v>32</v>
+      </c>
+      <c r="Q108">
+        <v>42</v>
+      </c>
+      <c r="R108">
+        <v>22</v>
+      </c>
+      <c r="S108">
+        <v>52</v>
+      </c>
+      <c r="T108">
+        <v>50</v>
+      </c>
+      <c r="U108">
+        <v>15</v>
+      </c>
+      <c r="V108">
+        <v>21</v>
+      </c>
+      <c r="W108">
+        <v>25</v>
+      </c>
+      <c r="X108">
+        <v>26</v>
+      </c>
+      <c r="Y108">
+        <v>41</v>
+      </c>
+      <c r="Z108">
+        <v>35</v>
+      </c>
+      <c r="AA108">
+        <v>23</v>
+      </c>
+      <c r="AB108">
+        <v>16</v>
+      </c>
+      <c r="AC108">
+        <v>13</v>
+      </c>
+      <c r="AD108">
+        <v>12</v>
+      </c>
+      <c r="AE108">
+        <v>31</v>
+      </c>
+      <c r="AF108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2402</v>
+        <v>3204</v>
       </c>
       <c r="B109">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C109">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D109">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E109">
         <f>MIN(B109:D109)</f>
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F109" s="3">
         <f>E109/$B$2</f>
-        <v>0.96837944664031617</v>
+        <v>0.96442687747035571</v>
       </c>
       <c r="G109">
         <f>759*3 -SUM(B109:D109)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>2196</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="2"/>
+        <v>-27</v>
+      </c>
+      <c r="J109">
+        <f>COUNT($G$5:G109)</f>
+        <v>105</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="O109" cm="1">
+        <f t="array" ref="O109:AE109">TRANSPOSE(_xlfn.UNIQUE($K109:$K$132))</f>
+        <v>32</v>
+      </c>
+      <c r="P109">
+        <v>42</v>
+      </c>
+      <c r="Q109">
+        <v>22</v>
+      </c>
+      <c r="R109">
+        <v>52</v>
+      </c>
+      <c r="S109">
+        <v>50</v>
+      </c>
+      <c r="T109">
+        <v>15</v>
+      </c>
+      <c r="U109">
+        <v>21</v>
+      </c>
+      <c r="V109">
+        <v>25</v>
+      </c>
+      <c r="W109">
+        <v>26</v>
+      </c>
+      <c r="X109">
+        <v>41</v>
+      </c>
+      <c r="Y109">
+        <v>35</v>
+      </c>
+      <c r="Z109">
+        <v>23</v>
+      </c>
+      <c r="AA109">
+        <v>16</v>
+      </c>
+      <c r="AB109">
+        <v>13</v>
+      </c>
+      <c r="AC109">
+        <v>12</v>
+      </c>
+      <c r="AD109">
+        <v>31</v>
+      </c>
+      <c r="AE109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2503</v>
+        <v>4203</v>
       </c>
       <c r="B110">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C110">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D110">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E110">
         <f>MIN(B110:D110)</f>
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="F110" s="3">
         <f>E110/$B$2</f>
-        <v>0.93939393939393945</v>
+        <v>0.96179183135704871</v>
       </c>
       <c r="G110">
         <f>759*3 -SUM(B110:D110)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>2190</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="J110">
+        <f>COUNT($G$5:G110)</f>
+        <v>106</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O110" cm="1">
+        <f t="array" ref="O110:AD110">TRANSPOSE(_xlfn.UNIQUE($K110:$K$132))</f>
+        <v>42</v>
+      </c>
+      <c r="P110">
+        <v>22</v>
+      </c>
+      <c r="Q110">
+        <v>52</v>
+      </c>
+      <c r="R110">
+        <v>50</v>
+      </c>
+      <c r="S110">
+        <v>15</v>
+      </c>
+      <c r="T110">
+        <v>21</v>
+      </c>
+      <c r="U110">
+        <v>25</v>
+      </c>
+      <c r="V110">
+        <v>26</v>
+      </c>
+      <c r="W110">
+        <v>41</v>
+      </c>
+      <c r="X110">
+        <v>35</v>
+      </c>
+      <c r="Y110">
+        <v>23</v>
+      </c>
+      <c r="Z110">
+        <v>16</v>
+      </c>
+      <c r="AA110">
+        <v>13</v>
+      </c>
+      <c r="AB110">
+        <v>12</v>
+      </c>
+      <c r="AC110">
+        <v>31</v>
+      </c>
+      <c r="AD110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2701</v>
+        <v>2204</v>
       </c>
       <c r="B111">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C111">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D111">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E111">
         <f>MIN(B111:D111)</f>
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F111" s="3">
         <f>E111/$B$2</f>
-        <v>0.96706192358366272</v>
+        <v>0.96047430830039526</v>
       </c>
       <c r="G111">
         <f>759*3 -SUM(B111:D111)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>2189</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="J111">
+        <f>COUNT($G$5:G111)</f>
+        <v>107</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O111" cm="1">
+        <f t="array" ref="O111:AC111">TRANSPOSE(_xlfn.UNIQUE($K111:$K$132))</f>
+        <v>22</v>
+      </c>
+      <c r="P111">
+        <v>52</v>
+      </c>
+      <c r="Q111">
+        <v>50</v>
+      </c>
+      <c r="R111">
+        <v>15</v>
+      </c>
+      <c r="S111">
+        <v>21</v>
+      </c>
+      <c r="T111">
+        <v>25</v>
+      </c>
+      <c r="U111">
+        <v>26</v>
+      </c>
+      <c r="V111">
+        <v>41</v>
+      </c>
+      <c r="W111">
+        <v>35</v>
+      </c>
+      <c r="X111">
+        <v>23</v>
+      </c>
+      <c r="Y111">
+        <v>16</v>
+      </c>
+      <c r="Z111">
+        <v>13</v>
+      </c>
+      <c r="AA111">
+        <v>12</v>
+      </c>
+      <c r="AB111">
+        <v>31</v>
+      </c>
+      <c r="AC111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1503</v>
+        <v>5202</v>
       </c>
       <c r="B112">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="C112">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="D112">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="E112">
         <f>MIN(B112:D112)</f>
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="F112" s="3">
         <f>E112/$B$2</f>
-        <v>0.9025032938076416</v>
+        <v>0.95915678524374182</v>
       </c>
       <c r="G112">
         <f>759*3 -SUM(B112:D112)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>2184</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="2"/>
+        <v>-31</v>
+      </c>
+      <c r="J112">
+        <f>COUNT($G$5:G112)</f>
+        <v>108</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="O112" cm="1">
+        <f t="array" ref="O112:AB112">TRANSPOSE(_xlfn.UNIQUE($K112:$K$132))</f>
+        <v>52</v>
+      </c>
+      <c r="P112">
+        <v>50</v>
+      </c>
+      <c r="Q112">
+        <v>15</v>
+      </c>
+      <c r="R112">
+        <v>21</v>
+      </c>
+      <c r="S112">
+        <v>25</v>
+      </c>
+      <c r="T112">
+        <v>26</v>
+      </c>
+      <c r="U112">
+        <v>41</v>
+      </c>
+      <c r="V112">
+        <v>35</v>
+      </c>
+      <c r="W112">
+        <v>23</v>
+      </c>
+      <c r="X112">
+        <v>16</v>
+      </c>
+      <c r="Y112">
+        <v>13</v>
+      </c>
+      <c r="Z112">
+        <v>12</v>
+      </c>
+      <c r="AA112">
+        <v>31</v>
+      </c>
+      <c r="AB112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>3204</v>
+        <v>5001</v>
       </c>
       <c r="B113">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C113">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D113">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E113">
         <f>MIN(B113:D113)</f>
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F113" s="3">
         <f>E113/$B$2</f>
-        <v>0.96442687747035571</v>
+        <v>0.95783926218708826</v>
       </c>
       <c r="G113">
         <f>759*3 -SUM(B113:D113)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>2182</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>-32</v>
+      </c>
+      <c r="J113">
+        <f>COUNT($G$5:G113)</f>
+        <v>109</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="O113" cm="1">
+        <f t="array" ref="O113:AA113">TRANSPOSE(_xlfn.UNIQUE($K113:$K$132))</f>
+        <v>50</v>
+      </c>
+      <c r="P113">
+        <v>15</v>
+      </c>
+      <c r="Q113">
+        <v>21</v>
+      </c>
+      <c r="R113">
+        <v>25</v>
+      </c>
+      <c r="S113">
+        <v>26</v>
+      </c>
+      <c r="T113">
+        <v>41</v>
+      </c>
+      <c r="U113">
+        <v>35</v>
+      </c>
+      <c r="V113">
+        <v>23</v>
+      </c>
+      <c r="W113">
+        <v>16</v>
+      </c>
+      <c r="X113">
+        <v>13</v>
+      </c>
+      <c r="Y113">
+        <v>12</v>
+      </c>
+      <c r="Z113">
+        <v>31</v>
+      </c>
+      <c r="AA113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B114">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C114">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D114">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E114">
         <f>MIN(B114:D114)</f>
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F114" s="3">
         <f>E114/$B$2</f>
-        <v>0.94993412384716736</v>
+        <v>0.95388669301712781</v>
       </c>
       <c r="G114">
         <f>759*3 -SUM(B114:D114)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>2206</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="2"/>
+        <v>-35</v>
+      </c>
+      <c r="J114">
+        <f>COUNT($G$5:G114)</f>
+        <v>110</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O114" cm="1">
+        <f t="array" ref="O114:Z114">TRANSPOSE(_xlfn.UNIQUE($K114:$K$132))</f>
+        <v>15</v>
+      </c>
+      <c r="P114">
+        <v>21</v>
+      </c>
+      <c r="Q114">
+        <v>25</v>
+      </c>
+      <c r="R114">
+        <v>26</v>
+      </c>
+      <c r="S114">
+        <v>41</v>
+      </c>
+      <c r="T114">
+        <v>35</v>
+      </c>
+      <c r="U114">
+        <v>23</v>
+      </c>
+      <c r="V114">
+        <v>16</v>
+      </c>
+      <c r="W114">
+        <v>13</v>
+      </c>
+      <c r="X114">
+        <v>12</v>
+      </c>
+      <c r="Y114">
+        <v>31</v>
+      </c>
+      <c r="Z114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4203</v>
+        <v>1504</v>
       </c>
       <c r="B115">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C115">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D115">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="E115">
         <f>MIN(B115:D115)</f>
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="F115" s="3">
         <f>E115/$B$2</f>
-        <v>0.96179183135704871</v>
+        <v>0.94993412384716736</v>
       </c>
       <c r="G115">
         <f>759*3 -SUM(B115:D115)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>2195</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="2"/>
+        <v>-38</v>
+      </c>
+      <c r="J115">
+        <f>COUNT($G$5:G115)</f>
+        <v>111</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O115" cm="1">
+        <f t="array" ref="O115:Z115">TRANSPOSE(_xlfn.UNIQUE($K115:$K$132))</f>
+        <v>15</v>
+      </c>
+      <c r="P115">
+        <v>21</v>
+      </c>
+      <c r="Q115">
+        <v>25</v>
+      </c>
+      <c r="R115">
+        <v>26</v>
+      </c>
+      <c r="S115">
+        <v>41</v>
+      </c>
+      <c r="T115">
+        <v>35</v>
+      </c>
+      <c r="U115">
+        <v>23</v>
+      </c>
+      <c r="V115">
+        <v>16</v>
+      </c>
+      <c r="W115">
+        <v>13</v>
+      </c>
+      <c r="X115">
+        <v>12</v>
+      </c>
+      <c r="Y115">
+        <v>31</v>
+      </c>
+      <c r="Z115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2204</v>
+        <v>2105</v>
       </c>
       <c r="B116">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C116">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D116">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E116">
         <f>MIN(B116:D116)</f>
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F116" s="3">
         <f>E116/$B$2</f>
-        <v>0.96047430830039526</v>
+        <v>0.94993412384716736</v>
       </c>
       <c r="G116">
         <f>759*3 -SUM(B116:D116)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>2163</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="2"/>
+        <v>-38</v>
+      </c>
+      <c r="J116">
+        <f>COUNT($G$5:G116)</f>
+        <v>112</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O116" cm="1">
+        <f t="array" ref="O116:Z116">TRANSPOSE(_xlfn.UNIQUE($K116:$K$132))</f>
+        <v>21</v>
+      </c>
+      <c r="P116">
+        <v>25</v>
+      </c>
+      <c r="Q116">
+        <v>26</v>
+      </c>
+      <c r="R116">
+        <v>41</v>
+      </c>
+      <c r="S116">
+        <v>15</v>
+      </c>
+      <c r="T116">
+        <v>35</v>
+      </c>
+      <c r="U116">
+        <v>23</v>
+      </c>
+      <c r="V116">
+        <v>16</v>
+      </c>
+      <c r="W116">
+        <v>13</v>
+      </c>
+      <c r="X116">
+        <v>12</v>
+      </c>
+      <c r="Y116">
+        <v>31</v>
+      </c>
+      <c r="Z116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>5202</v>
+        <v>2503</v>
       </c>
       <c r="B117">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C117">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D117">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="E117">
         <f>MIN(B117:D117)</f>
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="F117" s="3">
         <f>E117/$B$2</f>
-        <v>0.95915678524374182</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="G117">
         <f>759*3 -SUM(B117:D117)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>2205</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="2"/>
+        <v>-46</v>
+      </c>
+      <c r="J117">
+        <f>COUNT($G$5:G117)</f>
+        <v>113</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="O117" cm="1">
+        <f t="array" ref="O117:Y117">TRANSPOSE(_xlfn.UNIQUE($K117:$K$132))</f>
+        <v>25</v>
+      </c>
+      <c r="P117">
+        <v>26</v>
+      </c>
+      <c r="Q117">
+        <v>41</v>
+      </c>
+      <c r="R117">
+        <v>15</v>
+      </c>
+      <c r="S117">
+        <v>35</v>
+      </c>
+      <c r="T117">
+        <v>23</v>
+      </c>
+      <c r="U117">
+        <v>16</v>
+      </c>
+      <c r="V117">
+        <v>13</v>
+      </c>
+      <c r="W117">
+        <v>12</v>
+      </c>
+      <c r="X117">
+        <v>31</v>
+      </c>
+      <c r="Y117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5001</v>
+        <v>2604</v>
       </c>
       <c r="B118">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C118">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="D118">
         <v>728</v>
       </c>
       <c r="E118">
         <f>MIN(B118:D118)</f>
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F118" s="3">
         <f>E118/$B$2</f>
-        <v>0.95783926218708826</v>
+        <v>0.93807641633728589</v>
       </c>
       <c r="G118">
         <f>759*3 -SUM(B118:D118)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>2168</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="2"/>
+        <v>-47</v>
+      </c>
+      <c r="J118">
+        <f>COUNT($G$5:G118)</f>
+        <v>114</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O118" cm="1">
+        <f t="array" ref="O118:X118">TRANSPOSE(_xlfn.UNIQUE($K118:$K$132))</f>
+        <v>26</v>
+      </c>
+      <c r="P118">
+        <v>41</v>
+      </c>
+      <c r="Q118">
+        <v>15</v>
+      </c>
+      <c r="R118">
+        <v>35</v>
+      </c>
+      <c r="S118">
+        <v>23</v>
+      </c>
+      <c r="T118">
+        <v>16</v>
+      </c>
+      <c r="U118">
+        <v>13</v>
+      </c>
+      <c r="V118">
+        <v>12</v>
+      </c>
+      <c r="W118">
+        <v>31</v>
+      </c>
+      <c r="X118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2604</v>
+        <v>4109</v>
       </c>
       <c r="B119">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C119">
         <v>712</v>
       </c>
       <c r="D119">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="E119">
         <f>MIN(B119:D119)</f>
@@ -3946,47 +6265,146 @@
       </c>
       <c r="G119">
         <f>759*3 -SUM(B119:D119)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>2136</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="2"/>
+        <v>-47</v>
+      </c>
+      <c r="J119">
+        <f>COUNT($G$5:G119)</f>
+        <v>115</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O119" cm="1">
+        <f t="array" ref="O119:X119">TRANSPOSE(_xlfn.UNIQUE($K119:$K$132))</f>
+        <v>41</v>
+      </c>
+      <c r="P119">
+        <v>15</v>
+      </c>
+      <c r="Q119">
+        <v>35</v>
+      </c>
+      <c r="R119">
+        <v>23</v>
+      </c>
+      <c r="S119">
+        <v>16</v>
+      </c>
+      <c r="T119">
+        <v>13</v>
+      </c>
+      <c r="U119">
+        <v>12</v>
+      </c>
+      <c r="V119">
+        <v>31</v>
+      </c>
+      <c r="W119">
+        <v>26</v>
+      </c>
+      <c r="X119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2105</v>
+        <v>1505</v>
       </c>
       <c r="B120">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C120">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D120">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E120">
         <f>MIN(B120:D120)</f>
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F120" s="3">
         <f>E120/$B$2</f>
-        <v>0.94993412384716736</v>
+        <v>0.92753623188405798</v>
       </c>
       <c r="G120">
         <f>759*3 -SUM(B120:D120)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>2150</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="2"/>
+        <v>-55</v>
+      </c>
+      <c r="J120">
+        <f>COUNT($G$5:G120)</f>
+        <v>116</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O120" cm="1">
+        <f t="array" ref="O120:W120">TRANSPOSE(_xlfn.UNIQUE($K120:$K$132))</f>
+        <v>15</v>
+      </c>
+      <c r="P120">
+        <v>35</v>
+      </c>
+      <c r="Q120">
+        <v>23</v>
+      </c>
+      <c r="R120">
+        <v>16</v>
+      </c>
+      <c r="S120">
+        <v>13</v>
+      </c>
+      <c r="T120">
+        <v>12</v>
+      </c>
+      <c r="U120">
+        <v>31</v>
+      </c>
+      <c r="V120">
+        <v>26</v>
+      </c>
+      <c r="W120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1505</v>
+        <v>3514</v>
       </c>
       <c r="B121">
+        <v>720</v>
+      </c>
+      <c r="C121">
         <v>704</v>
       </c>
-      <c r="C121">
-        <v>723</v>
-      </c>
       <c r="D121">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E121">
         <f>MIN(B121:D121)</f>
@@ -3998,10 +6416,58 @@
       </c>
       <c r="G121">
         <f>759*3 -SUM(B121:D121)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>2144</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="2"/>
+        <v>-55</v>
+      </c>
+      <c r="J121">
+        <f>COUNT($G$5:G121)</f>
+        <v>117</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O121" cm="1">
+        <f t="array" ref="O121:W121">TRANSPOSE(_xlfn.UNIQUE($K121:$K$132))</f>
+        <v>35</v>
+      </c>
+      <c r="P121">
+        <v>23</v>
+      </c>
+      <c r="Q121">
+        <v>16</v>
+      </c>
+      <c r="R121">
+        <v>15</v>
+      </c>
+      <c r="S121">
+        <v>13</v>
+      </c>
+      <c r="T121">
+        <v>12</v>
+      </c>
+      <c r="U121">
+        <v>31</v>
+      </c>
+      <c r="V121">
+        <v>26</v>
+      </c>
+      <c r="W121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2305</v>
       </c>
@@ -4026,143 +6492,404 @@
         <f>759*3 -SUM(B122:D122)</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>2146</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="2"/>
+        <v>-63</v>
+      </c>
+      <c r="J122">
+        <f>COUNT($G$5:G122)</f>
+        <v>118</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O122" cm="1">
+        <f t="array" ref="O122:V122">TRANSPOSE(_xlfn.UNIQUE($K122:$K$132))</f>
+        <v>23</v>
+      </c>
+      <c r="P122">
+        <v>16</v>
+      </c>
+      <c r="Q122">
+        <v>15</v>
+      </c>
+      <c r="R122">
+        <v>13</v>
+      </c>
+      <c r="S122">
+        <v>12</v>
+      </c>
+      <c r="T122">
+        <v>31</v>
+      </c>
+      <c r="U122">
+        <v>26</v>
+      </c>
+      <c r="V122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>3514</v>
+        <v>1602</v>
       </c>
       <c r="B123">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="C123">
-        <v>704</v>
+        <v>758</v>
       </c>
       <c r="D123">
-        <v>720</v>
+        <v>758</v>
       </c>
       <c r="E123">
         <f>MIN(B123:D123)</f>
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="F123" s="3">
         <f>E123/$B$2</f>
-        <v>0.92753623188405798</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="G123">
         <f>759*3 -SUM(B123:D123)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>2209</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="2"/>
+        <v>-66</v>
+      </c>
+      <c r="J123">
+        <f>COUNT($G$5:G123)</f>
+        <v>119</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O123" cm="1">
+        <f t="array" ref="O123:V123">TRANSPOSE(_xlfn.UNIQUE($K123:$K$132))</f>
+        <v>16</v>
+      </c>
+      <c r="P123">
+        <v>15</v>
+      </c>
+      <c r="Q123">
+        <v>13</v>
+      </c>
+      <c r="R123">
+        <v>12</v>
+      </c>
+      <c r="S123">
+        <v>31</v>
+      </c>
+      <c r="T123">
+        <v>23</v>
+      </c>
+      <c r="U123">
+        <v>26</v>
+      </c>
+      <c r="V123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1201</v>
+        <v>1503</v>
       </c>
       <c r="B124">
-        <v>653</v>
+        <v>759</v>
       </c>
       <c r="C124">
-        <v>745</v>
+        <v>685</v>
       </c>
       <c r="D124">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="E124">
         <f>MIN(B124:D124)</f>
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="F124" s="3">
         <f>E124/$B$2</f>
-        <v>0.86034255599472986</v>
+        <v>0.9025032938076416</v>
       </c>
       <c r="G124">
         <f>759*3 -SUM(B124:D124)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>2203</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="2"/>
+        <v>-74</v>
+      </c>
+      <c r="J124">
+        <f>COUNT($G$5:G124)</f>
+        <v>120</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O124" cm="1">
+        <f t="array" ref="O124:V124">TRANSPOSE(_xlfn.UNIQUE($K124:$K$132))</f>
+        <v>15</v>
+      </c>
+      <c r="P124">
+        <v>13</v>
+      </c>
+      <c r="Q124">
+        <v>12</v>
+      </c>
+      <c r="R124">
+        <v>31</v>
+      </c>
+      <c r="S124">
+        <v>23</v>
+      </c>
+      <c r="T124">
+        <v>26</v>
+      </c>
+      <c r="U124">
+        <v>14</v>
+      </c>
+      <c r="V124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4109</v>
+        <v>1304</v>
       </c>
       <c r="B125">
-        <v>712</v>
+        <v>663</v>
       </c>
       <c r="C125">
-        <v>712</v>
+        <v>667</v>
       </c>
       <c r="D125">
-        <v>712</v>
+        <v>667</v>
       </c>
       <c r="E125">
         <f>MIN(B125:D125)</f>
-        <v>712</v>
+        <v>663</v>
       </c>
       <c r="F125" s="3">
         <f>E125/$B$2</f>
-        <v>0.93807641633728589</v>
+        <v>0.87351778656126478</v>
       </c>
       <c r="G125">
         <f>759*3 -SUM(B125:D125)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="2"/>
+        <v>-96</v>
+      </c>
+      <c r="J125">
+        <f>COUNT($G$5:G125)</f>
+        <v>121</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O125" cm="1">
+        <f t="array" ref="O125:V125">TRANSPOSE(_xlfn.UNIQUE($K125:$K$132))</f>
+        <v>13</v>
+      </c>
+      <c r="P125">
+        <v>12</v>
+      </c>
+      <c r="Q125">
+        <v>31</v>
+      </c>
+      <c r="R125">
+        <v>23</v>
+      </c>
+      <c r="S125">
+        <v>26</v>
+      </c>
+      <c r="T125">
+        <v>14</v>
+      </c>
+      <c r="U125">
+        <v>15</v>
+      </c>
+      <c r="V125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1304</v>
+        <v>1201</v>
       </c>
       <c r="B126">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C126">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="D126">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="E126">
         <f>MIN(B126:D126)</f>
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F126" s="3">
         <f>E126/$B$2</f>
-        <v>0.87351778656126478</v>
+        <v>0.86034255599472986</v>
       </c>
       <c r="G126">
         <f>759*3 -SUM(B126:D126)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>2143</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="2"/>
+        <v>-106</v>
+      </c>
+      <c r="J126">
+        <f>COUNT($G$5:G126)</f>
+        <v>122</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O126" cm="1">
+        <f t="array" ref="O126:U126">TRANSPOSE(_xlfn.UNIQUE($K126:$K$132))</f>
+        <v>12</v>
+      </c>
+      <c r="P126">
+        <v>31</v>
+      </c>
+      <c r="Q126">
+        <v>23</v>
+      </c>
+      <c r="R126">
+        <v>26</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>15</v>
+      </c>
+      <c r="U126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2303</v>
+        <v>3103</v>
       </c>
       <c r="B127">
-        <v>759</v>
+        <v>652</v>
       </c>
       <c r="C127">
-        <v>447</v>
+        <v>652</v>
       </c>
       <c r="D127">
-        <v>759</v>
+        <v>652</v>
       </c>
       <c r="E127">
         <f>MIN(B127:D127)</f>
-        <v>447</v>
+        <v>652</v>
       </c>
       <c r="F127" s="3">
         <f>E127/$B$2</f>
-        <v>0.58893280632411071</v>
+        <v>0.85902503293807642</v>
       </c>
       <c r="G127">
         <f>759*3 -SUM(B127:D127)</f>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>1956</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="2"/>
+        <v>-107</v>
+      </c>
+      <c r="J127">
+        <f>COUNT($G$5:G127)</f>
+        <v>123</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O127" cm="1">
+        <f t="array" ref="O127:T127">TRANSPOSE(_xlfn.UNIQUE($K127:$K$132))</f>
+        <v>31</v>
+      </c>
+      <c r="P127">
+        <v>23</v>
+      </c>
+      <c r="Q127">
+        <v>26</v>
+      </c>
+      <c r="R127">
+        <v>14</v>
+      </c>
+      <c r="S127">
+        <v>15</v>
+      </c>
+      <c r="T127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2605</v>
+        <v>2303</v>
       </c>
       <c r="B128">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C128">
         <v>447</v>
@@ -4180,36 +6907,105 @@
       </c>
       <c r="G128">
         <f>759*3 -SUM(B128:D128)</f>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>1965</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="2"/>
+        <v>-312</v>
+      </c>
+      <c r="J128">
+        <f>COUNT($G$5:G128)</f>
+        <v>124</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O128" cm="1">
+        <f t="array" ref="O128:S128">TRANSPOSE(_xlfn.UNIQUE($K128:$K$132))</f>
+        <v>23</v>
+      </c>
+      <c r="P128">
+        <v>26</v>
+      </c>
+      <c r="Q128">
+        <v>14</v>
+      </c>
+      <c r="R128">
+        <v>15</v>
+      </c>
+      <c r="S128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>3103</v>
+        <v>2605</v>
       </c>
       <c r="B129">
-        <v>652</v>
+        <v>758</v>
       </c>
       <c r="C129">
-        <v>652</v>
+        <v>447</v>
       </c>
       <c r="D129">
-        <v>652</v>
+        <v>759</v>
       </c>
       <c r="E129">
         <f>MIN(B129:D129)</f>
-        <v>652</v>
+        <v>447</v>
       </c>
       <c r="F129" s="3">
         <f>E129/$B$2</f>
-        <v>0.85902503293807642</v>
+        <v>0.58893280632411071</v>
       </c>
       <c r="G129">
         <f>759*3 -SUM(B129:D129)</f>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>1964</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="2"/>
+        <v>-312</v>
+      </c>
+      <c r="J129">
+        <f>COUNT($G$5:G129)</f>
+        <v>125</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O129" cm="1">
+        <f t="array" ref="O129:R129">TRANSPOSE(_xlfn.UNIQUE($K129:$K$132))</f>
+        <v>26</v>
+      </c>
+      <c r="P129">
+        <v>14</v>
+      </c>
+      <c r="Q129">
+        <v>15</v>
+      </c>
+      <c r="R129">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1402</v>
       </c>
@@ -4234,8 +7030,38 @@
         <f>759*3 -SUM(B130:D130)</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>1379</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="2"/>
+        <v>-534</v>
+      </c>
+      <c r="J130">
+        <f>COUNT($G$5:G130)</f>
+        <v>126</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O130" cm="1">
+        <f t="array" ref="O130:Q130">TRANSPOSE(_xlfn.UNIQUE($K130:$K$132))</f>
+        <v>14</v>
+      </c>
+      <c r="P130">
+        <v>15</v>
+      </c>
+      <c r="Q130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1502</v>
       </c>
@@ -4260,8 +7086,35 @@
         <f>759*3 -SUM(B131:D131)</f>
         <v>917</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <f t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="2"/>
+        <v>-537</v>
+      </c>
+      <c r="J131">
+        <f>COUNT($G$5:G131)</f>
+        <v>127</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O131" cm="1">
+        <f t="array" ref="O131:P131">TRANSPOSE(_xlfn.UNIQUE($K131:$K$132))</f>
+        <v>15</v>
+      </c>
+      <c r="P131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1601</v>
       </c>
@@ -4286,13 +7139,150 @@
         <f>759*3 -SUM(B132:D132)</f>
         <v>1114</v>
       </c>
+      <c r="H132">
+        <f t="shared" si="1"/>
+        <v>1163</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>-736</v>
+      </c>
+      <c r="J132">
+        <f>COUNT($G$5:G132)</f>
+        <v>128</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O132" cm="1">
+        <f t="array" ref="O132">TRANSPOSE(_xlfn.UNIQUE($K132:$K$132))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="N134">
+        <v>104</v>
+      </c>
+      <c r="O134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(O1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>RIO DE JANEIRO</v>
+      </c>
+      <c r="P134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(P1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>PARANA</v>
+      </c>
+      <c r="Q134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(Q1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>ESPIRITO SANTO</v>
+      </c>
+      <c r="R134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(R1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>RIO GRANDE DO NORTE</v>
+      </c>
+      <c r="S134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(S1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>ALAGOAS</v>
+      </c>
+      <c r="T134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(T1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>SANTA CATARINA</v>
+      </c>
+      <c r="U134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(U1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>PIAUI</v>
+      </c>
+      <c r="V134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(V1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>GOIAS</v>
+      </c>
+      <c r="W134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(W1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>MATO GROSSO DO SUL</v>
+      </c>
+      <c r="X134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(X1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>PARA</v>
+      </c>
+      <c r="Y134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(Y1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>MARANHAO</v>
+      </c>
+      <c r="Z134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(Z1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>PARAIBA</v>
+      </c>
+      <c r="AA134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AA1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>PERNAMBUCO</v>
+      </c>
+      <c r="AB134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AB1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>SAO PAULO</v>
+      </c>
+      <c r="AC134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AC1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>CEARA</v>
+      </c>
+      <c r="AD134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AD1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>AMAPA</v>
+      </c>
+      <c r="AE134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AE1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>AMAZONAS</v>
+      </c>
+      <c r="AF134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AF1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>ACRE</v>
+      </c>
+      <c r="AG134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AG1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>MINAS GERAIS</v>
+      </c>
+      <c r="AH134" s="4" t="str">
+        <f ca="1">INDEX([1]Estados!$B$2:$D$28,MATCH(OFFSET(AH1,$N$134-1,0),[1]Estados!$B$2:$B$28,0),3)</f>
+        <v>RORAIMA</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>22</v>
+      </c>
+      <c r="I136">
+        <f>H136/739</f>
+        <v>2.9769959404600813E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>50</v>
+      </c>
+      <c r="I137">
+        <f>H137/739</f>
+        <v>6.7658998646820026E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G132">
-      <sortCondition ref="G4"/>
+      <sortCondition descending="1" ref="F4"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="O105:AH132 P104:AH104">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O102:O104">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>35</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>